--- a/test-cases/Manual_Test_Cases.xlsx
+++ b/test-cases/Manual_Test_Cases.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artst\OneDrive\Documents\QA_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90C769-E2A0-4207-B1C1-A1E58BAC3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ADA398-AAF3-4DFD-8FF4-EC9FC86B2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3605F817-5E32-4F94-A443-7EE6AE114249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{3605F817-5E32-4F94-A443-7EE6AE114249}"/>
   </bookViews>
   <sheets>
     <sheet name="Traceability" sheetId="4" r:id="rId1"/>
     <sheet name="Test_Cases" sheetId="1" r:id="rId2"/>
     <sheet name="Smoke" sheetId="2" r:id="rId3"/>
     <sheet name="Regression" sheetId="3" r:id="rId4"/>
+    <sheet name="Defects" sheetId="5" r:id="rId5"/>
+    <sheet name="Metrics" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="323">
   <si>
     <t>TC_ID</t>
   </si>
@@ -102,9 +104,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Not Run</t>
-  </si>
-  <si>
     <t>Use unique email each run</t>
   </si>
   <si>
@@ -730,13 +729,283 @@
   </si>
   <si>
     <t>As a user, expired sessions are handled safely.</t>
+  </si>
+  <si>
+    <t>Executed On</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>Wiam</t>
+  </si>
+  <si>
+    <t>Tester 2</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>BUG-109</t>
+  </si>
+  <si>
+    <t>Investigate calculation; retest after fix.</t>
+  </si>
+  <si>
+    <t>Blocked by environment/data limitation; pending decision or workaround.</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>BUG-115</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Detected In Build</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Fix Version</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Closed On</t>
+  </si>
+  <si>
+    <t>Reopened?</t>
+  </si>
+  <si>
+    <t>Reopen Count</t>
+  </si>
+  <si>
+    <t>Ageing (days)</t>
+  </si>
+  <si>
+    <t>Checkout overview totals mismatch for tax/total</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>RC-3</t>
+  </si>
+  <si>
+    <t>RC-4</t>
+  </si>
+  <si>
+    <t>Blocks release unless accepted</t>
+  </si>
+  <si>
+    <t>Purchase history not available / missing feature</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>RC-1</t>
+  </si>
+  <si>
+    <t>Tester 3</t>
+  </si>
+  <si>
+    <t>Dev 1</t>
+  </si>
+  <si>
+    <t>PO 1</t>
+  </si>
+  <si>
+    <t>Accepted as out-of-scope for mvp version</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>KPI Execution Summary</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Nbr TC per day</t>
+  </si>
+  <si>
+    <t>Target (nbr TC)</t>
+  </si>
+  <si>
+    <t>Target %</t>
+  </si>
+  <si>
+    <t>OK%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>KO%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Blocked%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Not started%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>In progress%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>KO JDD%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>Total test days</t>
+  </si>
+  <si>
+    <t>Holidays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,16 +1013,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222A35"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF9000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -761,20 +1109,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -830,6 +1515,927 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-35D2-4C89-B739-19541357AD0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-35D2-4C89-B739-19541357AD0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-35D2-4C89-B739-19541357AD0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-35D2-4C89-B739-19541357AD0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-35D2-4C89-B739-19541357AD0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Metrics!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Not Started</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>In Progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35D2-4C89-B739-19541357AD0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E016C19-447A-505C-2939-C5168C1CE90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{471E31FE-6E4C-4281-B5D1-137C8AF3816E}" name="Table4" displayName="Table4" ref="A1:G26" totalsRowShown="0">
   <autoFilter ref="A1:G26" xr:uid="{471E31FE-6E4C-4281-B5D1-137C8AF3816E}"/>
@@ -847,22 +2453,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}" name="Table1" displayName="Table1" ref="A1:M28" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:M28" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{70E7FC72-2B94-4095-B589-FD7EEDADA482}" name="TC_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1755BD3D-DC03-4163-89A9-162DE2B3770C}" name="Feature" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7AF03489-C780-4276-A52C-BDF8DFD76C9F}" name="Scenario_ID" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{48FAEC4C-5B3C-4D4E-8AE0-C39DBDDF6BE3}" name="Test Case Title" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{D110F2B7-DB0A-49D5-976A-BD537630DCF0}" name="Priority" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8489B1F9-E125-4361-B792-6743609018C8}" name="Preconditions" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{19825A25-9210-4BF2-B18A-7329EDD28CB1}" name="Test Data" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{87692A4B-4CDA-438A-9C49-AB3C27FC0D05}" name="Steps" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{E43DF14F-4C89-4C38-BC7B-5FAA0EB05EAB}" name="Expected Result" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{D140EB97-BC8A-4E7A-90FB-6498F3C2A973}" name="Execution Type" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{51F608C5-3082-4103-88B4-EF3A990BA23C}" name="Automation Candidate" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{01407860-668D-4B00-B956-E822B09C94A1}" name="Status" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{F6C48C40-842E-4505-97D6-72075CEACBCF}" name="Notes" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}" name="Table1" displayName="Table1" ref="A1:P28" totalsRowShown="0" headerRowDxfId="22" dataDxfId="39">
+  <autoFilter ref="A1:P28" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{70E7FC72-2B94-4095-B589-FD7EEDADA482}" name="TC_ID" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1755BD3D-DC03-4163-89A9-162DE2B3770C}" name="Feature" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{7AF03489-C780-4276-A52C-BDF8DFD76C9F}" name="Scenario_ID" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{48FAEC4C-5B3C-4D4E-8AE0-C39DBDDF6BE3}" name="Test Case Title" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{D110F2B7-DB0A-49D5-976A-BD537630DCF0}" name="Priority" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8489B1F9-E125-4361-B792-6743609018C8}" name="Preconditions" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{19825A25-9210-4BF2-B18A-7329EDD28CB1}" name="Test Data" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{87692A4B-4CDA-438A-9C49-AB3C27FC0D05}" name="Steps" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{E43DF14F-4C89-4C38-BC7B-5FAA0EB05EAB}" name="Expected Result" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{D140EB97-BC8A-4E7A-90FB-6498F3C2A973}" name="Execution Type" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{51F608C5-3082-4103-88B4-EF3A990BA23C}" name="Automation Candidate" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{01407860-668D-4B00-B956-E822B09C94A1}" name="Status" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{EB504D96-9132-4B86-956C-61DCBEBD8252}" name="Executed On" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{435E9679-3F75-4A9C-8920-BDF52CE9995E}" name="Executed By" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{430A00E7-DF8B-4CE6-868B-C20EFED6467B}" name="Defect ID" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{F6C48C40-842E-4505-97D6-72075CEACBCF}" name="Notes" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,6 +2510,57 @@
     <tableColumn id="9" xr3:uid="{7DE2BEC8-B076-4606-895A-18C602536D9C}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{16205429-782E-4B95-821E-A4E4E4DA9EAC}" name="tblDefects" displayName="tblDefects" ref="A1:P3" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <autoFilter ref="A1:P3" xr:uid="{16205429-782E-4B95-821E-A4E4E4DA9EAC}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{2A03D3B9-16D0-431F-86C7-59FFB8345E3C}" name="Bug ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{223F2C82-D20E-4706-994C-760A0776ADFB}" name="Summary" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{8697FFCF-037D-4007-95A0-C3438BAB0AF1}" name="Feature" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9CC38287-94BC-472E-B8E8-C8F44235DCBF}" name="Severity" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D2B8399C-E03F-4CCD-B5D3-B0ACDA875653}" name="Priority" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{27D3F052-E3EC-4B7C-BB84-B9CE6D64FA7E}" name="Status" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{5B7F4C8E-D5A0-42A2-BDD4-D17F2C4AC688}" name="Detected In Build" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{1E6527C3-A25A-4295-B136-C25574F008D8}" name="Fix Version" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{12A7D37F-2087-4422-BA26-DD0515A95902}" name="Reported By" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2ED68D75-A096-4A98-AEA3-91C60E6F903D}" name="Assigned To" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{89E2EAC8-4666-4A03-9123-49BF70C506CB}" name="Created On" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{A717E9D7-7947-4D1B-8679-0B10348597FB}" name="Closed On" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{C2902D5F-EABB-4DF5-B33E-7052ABDAF44A}" name="Reopened?" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{A67CEEE6-9D7C-42FD-9C1A-764B44F90CAF}" name="Reopen Count" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{41B70439-2691-4F57-8511-F60953EFA70A}" name="Ageing (days)" dataDxfId="4">
+      <calculatedColumnFormula>IF(L2&lt;&gt;"",L2-K2,TODAY()-K2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{6BE911E0-B36F-4267-A2AD-A88D8520CF3F}" name="Comments" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}" name="Table6" displayName="Table6" ref="B3:F4" totalsRowShown="0">
+  <autoFilter ref="B3:F4" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{680E3648-EC9C-4486-82ED-6F8698CB0102}" name="Not Started">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{09A40617-6611-4536-9629-89FA9217E3FE}" name="In Progress">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5CDE109A-59FD-43BB-9942-F5F9416F6D44}" name="Passed">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7473BA4A-7397-4929-8407-30104F3D361A}" name="Failed">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E01F9A7B-5DD3-451B-B2EF-CA4D1762EB89}" name="Blocked">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1206,7 +2866,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1221,10 +2881,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>200</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1233,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1244,10 +2904,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1256,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1267,88 +2927,88 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1359,19 +3019,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
       </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1382,42 +3042,42 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1428,19 +3088,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
         <v>209</v>
       </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1451,42 +3111,42 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
         <v>212</v>
       </c>
-      <c r="B12" t="s">
-        <v>213</v>
-      </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1497,19 +3157,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1520,19 +3180,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1543,65 +3203,65 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
         <v>216</v>
       </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>217</v>
-      </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
         <v>219</v>
       </c>
-      <c r="B17" t="s">
-        <v>220</v>
-      </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1612,19 +3272,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1635,65 +3295,65 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
         <v>224</v>
       </c>
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1704,117 +3364,117 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>229</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>230</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
         <v>232</v>
       </c>
-      <c r="B26" t="s">
-        <v>233</v>
-      </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1830,10 +3490,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,52 +3508,64 @@
     <col min="8" max="8" width="48.28515625" customWidth="1"/>
     <col min="9" max="9" width="60" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1928,156 +3600,180 @@
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -2086,36 +3782,42 @@
         <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -2124,74 +3826,86 @@
         <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
@@ -2200,115 +3914,133 @@
         <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M9" t="s">
+        <v>237</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" t="s">
+        <v>239</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
@@ -2317,115 +4049,133 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
@@ -2434,77 +4184,89 @@
         <v>23</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M15" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
@@ -2513,36 +4275,42 @@
         <v>23</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M17" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>22</v>
@@ -2551,112 +4319,130 @@
         <v>23</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M18" t="s">
+        <v>240</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M19" t="s">
+        <v>241</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>22</v>
@@ -2665,36 +4451,48 @@
         <v>23</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="M21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>22</v>
@@ -2703,112 +4501,128 @@
         <v>23</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>22</v>
@@ -2817,127 +4631,169 @@
         <v>23</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="M25" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s">
+        <v>236</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s">
+        <v>237</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>244</v>
+      </c>
+      <c r="M28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:P28">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2966,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2990,12 +4846,12 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -3024,22 +4880,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3053,22 +4909,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -3082,22 +4938,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
         <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3111,22 +4967,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -3135,27 +4991,27 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -3169,22 +5025,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -3198,22 +5054,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -3227,22 +5083,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>129</v>
       </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>130</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -3256,22 +5112,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>146</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>148</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -3285,22 +5141,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
         <v>153</v>
       </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>154</v>
-      </c>
-      <c r="F12" t="s">
-        <v>155</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -3314,22 +5170,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
         <v>169</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>170</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -3343,22 +5199,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s">
         <v>189</v>
       </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -3367,7 +5223,7 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +5258,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3426,15 +5282,15 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3460,109 +5316,109 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
         <v>197</v>
       </c>
-      <c r="B3" t="s">
-        <v>198</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>197</v>
       </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" t="s">
-        <v>198</v>
-      </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
         <v>197</v>
       </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -3576,22 +5432,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
         <v>197</v>
       </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -3605,51 +5461,51 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
         <v>197</v>
       </c>
-      <c r="B8" t="s">
-        <v>198</v>
-      </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
         <v>197</v>
       </c>
-      <c r="B9" t="s">
-        <v>198</v>
-      </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -3663,22 +5519,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
         <v>197</v>
       </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
         <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -3687,56 +5543,56 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
         <v>197</v>
       </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
         <v>197</v>
       </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
       <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -3750,51 +5606,51 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
       </c>
-      <c r="B13" t="s">
-        <v>198</v>
-      </c>
       <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>102</v>
       </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
         <v>197</v>
       </c>
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>110</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -3808,51 +5664,51 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
         <v>197</v>
       </c>
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
       <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
         <v>197</v>
       </c>
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
       <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>124</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -3866,22 +5722,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
         <v>197</v>
       </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
       <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -3895,80 +5751,80 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
         <v>197</v>
       </c>
-      <c r="B18" t="s">
-        <v>198</v>
-      </c>
       <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>134</v>
       </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>135</v>
       </c>
-      <c r="F18" t="s">
-        <v>136</v>
-      </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
         <v>197</v>
       </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
       <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>140</v>
       </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
         <v>197</v>
       </c>
-      <c r="B20" t="s">
-        <v>198</v>
-      </c>
       <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
         <v>145</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>146</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>147</v>
-      </c>
-      <c r="F20" t="s">
-        <v>148</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -3982,22 +5838,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="B21" t="s">
-        <v>198</v>
-      </c>
       <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -4011,80 +5867,80 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
         <v>197</v>
       </c>
-      <c r="B22" t="s">
-        <v>198</v>
-      </c>
       <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>159</v>
       </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
         <v>197</v>
       </c>
-      <c r="B23" t="s">
-        <v>198</v>
-      </c>
       <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
-        <v>166</v>
-      </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
         <v>197</v>
       </c>
-      <c r="B24" t="s">
-        <v>198</v>
-      </c>
       <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
         <v>169</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>170</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -4098,51 +5954,51 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
         <v>197</v>
       </c>
-      <c r="B25" t="s">
-        <v>198</v>
-      </c>
       <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
         <v>177</v>
       </c>
-      <c r="D25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>178</v>
       </c>
-      <c r="F25" t="s">
-        <v>179</v>
-      </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
         <v>197</v>
       </c>
-      <c r="B26" t="s">
-        <v>198</v>
-      </c>
       <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
         <v>182</v>
       </c>
-      <c r="D26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" t="s">
-        <v>184</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -4151,27 +6007,27 @@
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
         <v>197</v>
       </c>
-      <c r="B27" t="s">
-        <v>198</v>
-      </c>
       <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
         <v>189</v>
       </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>190</v>
-      </c>
-      <c r="F27" t="s">
-        <v>191</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -4180,7 +6036,7 @@
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4189,4 +6045,1034 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6077590-1C3D-4622-9544-BE9C54B9BFD9}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f ca="1">IF(L2&lt;&gt;"",L2-K2,TODAY()-K2)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f ca="1">IF(L3&lt;&gt;"",L3-K3,TODAY()-K3)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DCE5A0-5595-46D9-ACFC-4E7B94D1B469}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A2:AE44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</f>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C29" s="6">
+        <v>46056</v>
+      </c>
+      <c r="D29" s="6">
+        <v>46057</v>
+      </c>
+      <c r="E29" s="6">
+        <v>46058</v>
+      </c>
+      <c r="F29" s="6">
+        <v>46059</v>
+      </c>
+      <c r="G29" s="6">
+        <v>46060</v>
+      </c>
+      <c r="H29" s="6">
+        <v>46061</v>
+      </c>
+      <c r="I29" s="6">
+        <v>46062</v>
+      </c>
+      <c r="J29" s="6">
+        <v>46063</v>
+      </c>
+      <c r="K29" s="6">
+        <v>46064</v>
+      </c>
+      <c r="L29" s="6">
+        <v>46065</v>
+      </c>
+      <c r="M29" s="6">
+        <v>46066</v>
+      </c>
+      <c r="N29" s="6">
+        <v>46067</v>
+      </c>
+      <c r="O29" s="6">
+        <v>46068</v>
+      </c>
+      <c r="P29" s="6">
+        <v>46069</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>46070</v>
+      </c>
+      <c r="R29" s="6">
+        <v>46071</v>
+      </c>
+      <c r="S29" s="6">
+        <v>46072</v>
+      </c>
+      <c r="T29" s="6">
+        <v>46073</v>
+      </c>
+      <c r="U29" s="6">
+        <v>46074</v>
+      </c>
+      <c r="V29" s="6">
+        <v>46075</v>
+      </c>
+      <c r="W29" s="6">
+        <v>46076</v>
+      </c>
+      <c r="X29" s="6">
+        <v>46077</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>46078</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>46079</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>46080</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>46081</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>46082</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>46083</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K30" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+    </row>
+    <row r="31" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K31" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K32" s="8" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+    </row>
+    <row r="36" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+    </row>
+    <row r="37" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+    </row>
+    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+    </row>
+    <row r="40" spans="1:31" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="19">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+    </row>
+    <row r="41" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+    </row>
+    <row r="42" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+    </row>
+    <row r="43" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="23">
+        <v>45852</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+    </row>
+    <row r="44" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/test-cases/Manual_Test_Cases.xlsx
+++ b/test-cases/Manual_Test_Cases.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ADA398-AAF3-4DFD-8FF4-EC9FC86B2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52251CB0-1193-4973-B3E4-A8EEBA8DAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{3605F817-5E32-4F94-A443-7EE6AE114249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3605F817-5E32-4F94-A443-7EE6AE114249}"/>
   </bookViews>
   <sheets>
-    <sheet name="Traceability" sheetId="4" r:id="rId1"/>
-    <sheet name="Test_Cases" sheetId="1" r:id="rId2"/>
-    <sheet name="Smoke" sheetId="2" r:id="rId3"/>
-    <sheet name="Regression" sheetId="3" r:id="rId4"/>
-    <sheet name="Defects" sheetId="5" r:id="rId5"/>
-    <sheet name="Metrics" sheetId="6" r:id="rId6"/>
+    <sheet name="Metrics" sheetId="6" r:id="rId1"/>
+    <sheet name="Traceability" sheetId="4" r:id="rId2"/>
+    <sheet name="Test_Cases" sheetId="1" r:id="rId3"/>
+    <sheet name="Smoke" sheetId="2" r:id="rId4"/>
+    <sheet name="Regression" sheetId="3" r:id="rId5"/>
+    <sheet name="Defects" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="dates" localSheetId="0">OFFSET(Metrics!$B$47,0,0,1,COUNTA(Metrics!$B$47:$ZZ$47))</definedName>
+    <definedName name="datesJF" localSheetId="0">OFFSET(Metrics!$B$60,0,0,1,COUNTA(Metrics!$B$60:$ZZ$60))</definedName>
+    <definedName name="Datesutiles" localSheetId="0">OFFSET(Metrics!$A$58,0,0,1,COUNTA(Metrics!$A$58:$ZZ$58))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="292">
   <si>
     <t>TC_ID</t>
   </si>
@@ -884,127 +889,37 @@
     <t>Target %</t>
   </si>
   <si>
-    <t>OK%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>KO%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>Blocked%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>Not started%</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
     <t>In progress%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>KO JDD%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
     <t>Total test days</t>
   </si>
   <si>
     <t>Holidays</t>
+  </si>
+  <si>
+    <t>Total TC</t>
+  </si>
+  <si>
+    <t>Passed%</t>
+  </si>
+  <si>
+    <t>Failed%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,9 +950,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1045,20 +959,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4472C4"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222A35"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,30 +991,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1134,145 +1065,216 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF4472C4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color theme="8"/>
       </right>
       <top style="medium">
-        <color rgb="FF9CC2E5"/>
+        <color theme="8"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF4472C4"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF4472C4"/>
+        <color theme="8"/>
       </left>
-      <right style="medium">
-        <color rgb="FF4472C4"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="8"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF4472C4"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4472C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF4472C4"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="8"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
+      <bottom style="medium">
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="8"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="8"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF4472C4"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF4472C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF4472C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF4472C4"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1280,77 +1282,377 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1407,46 +1709,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1696,28 +1958,302 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1638158941472522"/>
+                  <c:y val="0.10532490798691868"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20378274-FF27-4BAC-B06D-777D89E80794}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-35D2-4C89-B739-19541357AD0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13140265714208405"/>
+                  <c:y val="6.4514069859604082E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4D63335-BCB0-46D1-80D7-D9A23DA90865}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-35D2-4C89-B739-19541357AD0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5955053352203108E-2"/>
+                  <c:y val="1.1494250272818746E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{334702F9-404A-487E-9E9D-7B7F3F673B34}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-35D2-4C89-B739-19541357AD0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1960047424180606E-2"/>
+                  <c:y val="-1.1494250272818732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A54A1932-D770-4838-B964-4303BEBFE58E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-35D2-4C89-B739-19541357AD0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7580972481532087E-3"/>
+                  <c:y val="-2.5862074060851871E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D44B04B-155D-46F0-86B4-427F97739567}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-35D2-4C89-B739-19541357AD0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Metrics!$B$3:$F$3</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Metrics!$B$3:$F$5</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Not Started</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>In Progress</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Passed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Blocked</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Not Started</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>In Progress</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Passed</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Failed</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Blocked</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1744,19 +2280,43 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Metrics!$B$5:$F$5</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>92.6%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35D2-4C89-B739-19541357AD0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1782,7 +2342,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1836,7 +2396,1370 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-001"/>
+              <a:t>Test </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily Progress</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Passed%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$51:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.1829787234042602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11512027491408934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19387755102040816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19387755102040816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35584415584415585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35584415584415585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35584415584415585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35584415584415585</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53246753246753242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62041884816753923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In progress%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$55:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4054982817869417E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3163265306122451E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3163265306122451E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.792207792207792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.792207792207792E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.792207792207792E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.792207792207792E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6363636363636362E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not started%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$54:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.93617021276595747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78522336769759449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$52:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocked%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$53:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5910652920962206E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0612244897959183E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0612244897959183E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="527051783"/>
+        <c:axId val="526636039"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Metrics!$B$47:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$B$50:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F917-4462-B480-8A7B87F8AD14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="527051783"/>
+        <c:axId val="526636039"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="527051783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526636039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="526636039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527051783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2395,20 +4318,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>928686</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2433,10 +4872,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 1" descr="Type de graphique : Courbes. « Target % » par « Item »&#10;&#10;Description générée automatiquement">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286BC7BE-C9E8-47A0-A906-BC079BB4502F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}" name="Table6" displayName="Table6" ref="B3:F5" totalsRowCount="1" totalsRowDxfId="8" totalsRowCellStyle="Percent">
+  <autoFilter ref="B3:F4" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{680E3648-EC9C-4486-82ED-6F8698CB0102}" name="Not Started" totalsRowFunction="custom" totalsRowDxfId="7" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</calculatedColumnFormula>
+      <totalsRowFormula>Table6[Not Started]/G4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{09A40617-6611-4536-9629-89FA9217E3FE}" name="In Progress" totalsRowFunction="custom" totalsRowDxfId="6" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</calculatedColumnFormula>
+      <totalsRowFormula>Table6[In Progress]/G4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5CDE109A-59FD-43BB-9942-F5F9416F6D44}" name="Passed" totalsRowFunction="custom" totalsRowDxfId="5" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</calculatedColumnFormula>
+      <totalsRowFormula>Table6[Passed]/G4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7473BA4A-7397-4929-8407-30104F3D361A}" name="Failed" totalsRowFunction="custom" totalsRowDxfId="4" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</calculatedColumnFormula>
+      <totalsRowFormula>Table6[Failed]/G4</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E01F9A7B-5DD3-451B-B2EF-CA4D1762EB89}" name="Blocked" totalsRowFunction="custom" totalsRowDxfId="3" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</calculatedColumnFormula>
+      <totalsRowFormula>Table6[Blocked]/G4</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{471E31FE-6E4C-4281-B5D1-137C8AF3816E}" name="Table4" displayName="Table4" ref="A1:G26" totalsRowShown="0">
   <autoFilter ref="A1:G26" xr:uid="{471E31FE-6E4C-4281-B5D1-137C8AF3816E}"/>
   <tableColumns count="7">
@@ -2452,32 +4958,32 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}" name="Table1" displayName="Table1" ref="A1:P28" totalsRowShown="0" headerRowDxfId="22" dataDxfId="39">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}" name="Table1" displayName="Table1" ref="A1:P28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:P28" xr:uid="{60BF17AB-92C9-4424-91A4-B8C632AE4A8F}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{70E7FC72-2B94-4095-B589-FD7EEDADA482}" name="TC_ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1755BD3D-DC03-4163-89A9-162DE2B3770C}" name="Feature" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{7AF03489-C780-4276-A52C-BDF8DFD76C9F}" name="Scenario_ID" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{48FAEC4C-5B3C-4D4E-8AE0-C39DBDDF6BE3}" name="Test Case Title" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{D110F2B7-DB0A-49D5-976A-BD537630DCF0}" name="Priority" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8489B1F9-E125-4361-B792-6743609018C8}" name="Preconditions" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{19825A25-9210-4BF2-B18A-7329EDD28CB1}" name="Test Data" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{87692A4B-4CDA-438A-9C49-AB3C27FC0D05}" name="Steps" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{E43DF14F-4C89-4C38-BC7B-5FAA0EB05EAB}" name="Expected Result" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{D140EB97-BC8A-4E7A-90FB-6498F3C2A973}" name="Execution Type" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{51F608C5-3082-4103-88B4-EF3A990BA23C}" name="Automation Candidate" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{01407860-668D-4B00-B956-E822B09C94A1}" name="Status" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{EB504D96-9132-4B86-956C-61DCBEBD8252}" name="Executed On" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{435E9679-3F75-4A9C-8920-BDF52CE9995E}" name="Executed By" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{430A00E7-DF8B-4CE6-868B-C20EFED6467B}" name="Defect ID" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{F6C48C40-842E-4505-97D6-72075CEACBCF}" name="Notes" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{70E7FC72-2B94-4095-B589-FD7EEDADA482}" name="TC_ID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{1755BD3D-DC03-4163-89A9-162DE2B3770C}" name="Feature" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{7AF03489-C780-4276-A52C-BDF8DFD76C9F}" name="Scenario_ID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{48FAEC4C-5B3C-4D4E-8AE0-C39DBDDF6BE3}" name="Test Case Title" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{D110F2B7-DB0A-49D5-976A-BD537630DCF0}" name="Priority" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{8489B1F9-E125-4361-B792-6743609018C8}" name="Preconditions" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{19825A25-9210-4BF2-B18A-7329EDD28CB1}" name="Test Data" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{87692A4B-4CDA-438A-9C49-AB3C27FC0D05}" name="Steps" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{E43DF14F-4C89-4C38-BC7B-5FAA0EB05EAB}" name="Expected Result" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{D140EB97-BC8A-4E7A-90FB-6498F3C2A973}" name="Execution Type" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{51F608C5-3082-4103-88B4-EF3A990BA23C}" name="Automation Candidate" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{01407860-668D-4B00-B956-E822B09C94A1}" name="Status" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{EB504D96-9132-4B86-956C-61DCBEBD8252}" name="Executed On" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{435E9679-3F75-4A9C-8920-BDF52CE9995E}" name="Executed By" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{430A00E7-DF8B-4CE6-868B-C20EFED6467B}" name="Defect ID" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{F6C48C40-842E-4505-97D6-72075CEACBCF}" name="Notes" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8716A09-1943-43BF-8285-9B44409C480F}" name="Table2" displayName="Table2" ref="A1:I14" totalsRowShown="0">
   <autoFilter ref="A1:I14" xr:uid="{D8716A09-1943-43BF-8285-9B44409C480F}"/>
   <tableColumns count="9">
@@ -2495,7 +5001,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F237D862-DD03-4B2E-B766-5C5AA86FDA2B}" name="Table3" displayName="Table3" ref="A1:I27" totalsRowShown="0">
   <autoFilter ref="A1:I27" xr:uid="{F237D862-DD03-4B2E-B766-5C5AA86FDA2B}"/>
   <tableColumns count="9">
@@ -2513,52 +5019,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{16205429-782E-4B95-821E-A4E4E4DA9EAC}" name="tblDefects" displayName="tblDefects" ref="A1:P3" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{16205429-782E-4B95-821E-A4E4E4DA9EAC}" name="tblDefects" displayName="tblDefects" ref="A1:P3" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="A1:P3" xr:uid="{16205429-782E-4B95-821E-A4E4E4DA9EAC}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2A03D3B9-16D0-431F-86C7-59FFB8345E3C}" name="Bug ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{223F2C82-D20E-4706-994C-760A0776ADFB}" name="Summary" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{8697FFCF-037D-4007-95A0-C3438BAB0AF1}" name="Feature" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9CC38287-94BC-472E-B8E8-C8F44235DCBF}" name="Severity" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D2B8399C-E03F-4CCD-B5D3-B0ACDA875653}" name="Priority" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{27D3F052-E3EC-4B7C-BB84-B9CE6D64FA7E}" name="Status" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{5B7F4C8E-D5A0-42A2-BDD4-D17F2C4AC688}" name="Detected In Build" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{1E6527C3-A25A-4295-B136-C25574F008D8}" name="Fix Version" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{12A7D37F-2087-4422-BA26-DD0515A95902}" name="Reported By" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{2ED68D75-A096-4A98-AEA3-91C60E6F903D}" name="Assigned To" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{89E2EAC8-4666-4A03-9123-49BF70C506CB}" name="Created On" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{A717E9D7-7947-4D1B-8679-0B10348597FB}" name="Closed On" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{C2902D5F-EABB-4DF5-B33E-7052ABDAF44A}" name="Reopened?" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A67CEEE6-9D7C-42FD-9C1A-764B44F90CAF}" name="Reopen Count" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{41B70439-2691-4F57-8511-F60953EFA70A}" name="Ageing (days)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{2A03D3B9-16D0-431F-86C7-59FFB8345E3C}" name="Bug ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{223F2C82-D20E-4706-994C-760A0776ADFB}" name="Summary" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{8697FFCF-037D-4007-95A0-C3438BAB0AF1}" name="Feature" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9CC38287-94BC-472E-B8E8-C8F44235DCBF}" name="Severity" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D2B8399C-E03F-4CCD-B5D3-B0ACDA875653}" name="Priority" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{27D3F052-E3EC-4B7C-BB84-B9CE6D64FA7E}" name="Status" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5B7F4C8E-D5A0-42A2-BDD4-D17F2C4AC688}" name="Detected In Build" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{1E6527C3-A25A-4295-B136-C25574F008D8}" name="Fix Version" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{12A7D37F-2087-4422-BA26-DD0515A95902}" name="Reported By" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{2ED68D75-A096-4A98-AEA3-91C60E6F903D}" name="Assigned To" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{89E2EAC8-4666-4A03-9123-49BF70C506CB}" name="Created On" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{A717E9D7-7947-4D1B-8679-0B10348597FB}" name="Closed On" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C2902D5F-EABB-4DF5-B33E-7052ABDAF44A}" name="Reopened?" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{A67CEEE6-9D7C-42FD-9C1A-764B44F90CAF}" name="Reopen Count" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{41B70439-2691-4F57-8511-F60953EFA70A}" name="Ageing (days)" dataDxfId="10">
       <calculatedColumnFormula>IF(L2&lt;&gt;"",L2-K2,TODAY()-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6BE911E0-B36F-4267-A2AD-A88D8520CF3F}" name="Comments" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}" name="Table6" displayName="Table6" ref="B3:F4" totalsRowShown="0">
-  <autoFilter ref="B3:F4" xr:uid="{17A27ADA-9F4B-4570-B89B-7EBCF78FCB5F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{680E3648-EC9C-4486-82ED-6F8698CB0102}" name="Not Started">
-      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{09A40617-6611-4536-9629-89FA9217E3FE}" name="In Progress">
-      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CDE109A-59FD-43BB-9942-F5F9416F6D44}" name="Passed">
-      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{7473BA4A-7397-4929-8407-30104F3D361A}" name="Failed">
-      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{E01F9A7B-5DD3-451B-B2EF-CA4D1762EB89}" name="Blocked">
-      <calculatedColumnFormula xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="16" xr3:uid="{6BE911E0-B36F-4267-A2AD-A88D8520CF3F}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2860,6 +5342,1004 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DCE5A0-5595-46D9-ACFC-4E7B94D1B469}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A2:AQ73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13" style="37" customWidth="1"/>
+    <col min="7" max="13" width="11.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="37" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</f>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM(Table6[[#This Row],[Not Started]:[Blocked]])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
+        <f>Table6[Not Started]/G4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="39">
+        <f>Table6[In Progress]/G4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
+        <f>Table6[Passed]/G4</f>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="E5" s="39">
+        <f>Table6[Failed]/G4</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="F5" s="39">
+        <f>Table6[Blocked]/G4</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="41"/>
+    </row>
+    <row r="27" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="15:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="43">
+        <v>46055</v>
+      </c>
+      <c r="C47" s="43">
+        <v>46056</v>
+      </c>
+      <c r="D47" s="43">
+        <v>46057</v>
+      </c>
+      <c r="E47" s="43">
+        <v>46058</v>
+      </c>
+      <c r="F47" s="43">
+        <v>46059</v>
+      </c>
+      <c r="G47" s="43">
+        <v>46060</v>
+      </c>
+      <c r="H47" s="43">
+        <v>46061</v>
+      </c>
+      <c r="I47" s="43">
+        <v>46062</v>
+      </c>
+      <c r="J47" s="43">
+        <v>46063</v>
+      </c>
+      <c r="K47" s="43">
+        <v>46064</v>
+      </c>
+      <c r="L47" s="43">
+        <v>46065</v>
+      </c>
+      <c r="M47" s="43">
+        <v>46066</v>
+      </c>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+    </row>
+    <row r="48" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="7">
+        <f ca="1">IF( AND( ISNUMBER(B47), WEEKDAY(B47,2)&lt;6, ISERROR(MATCH(B47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(B47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="C48" s="7">
+        <f ca="1">IF( AND( ISNUMBER(C47), WEEKDAY(C47,2)&lt;6, ISERROR(MATCH(C47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(C47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="D48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(D47), WEEKDAY(D47,2)&lt;6, ISERROR(MATCH(D47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(D47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="E48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(E47), WEEKDAY(E47,2)&lt;6, ISERROR(MATCH(E47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(E47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F48" s="40" t="str">
+        <f ca="1">IF( AND( ISNUMBER(F47), WEEKDAY(F47,2)&lt;6, ISERROR(MATCH(F47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(F47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f ca="1">IF( AND( ISNUMBER(G47), WEEKDAY(G47,2)&lt;6, ISERROR(MATCH(G47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(G47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f ca="1">IF( AND( ISNUMBER(H47), WEEKDAY(H47,2)&lt;6, ISERROR(MATCH(H47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(H47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="40" t="str">
+        <f ca="1">IF( AND( ISNUMBER(I47), WEEKDAY(I47,2)&lt;6, ISERROR(MATCH(I47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(I47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(J47), WEEKDAY(J47,2)&lt;6, ISERROR(MATCH(J47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(J47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="K48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(K47), WEEKDAY(K47,2)&lt;6, ISERROR(MATCH(K47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(K47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="L48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(L47), WEEKDAY(L47,2)&lt;6, ISERROR(MATCH(L47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(L47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="M48" s="8">
+        <f ca="1">IF( AND( ISNUMBER(M47), WEEKDAY(M47,2)&lt;6, ISERROR(MATCH(M47,datesJF,0))), SUM(INT(G4/B57),IF(RANK(M47,A62:A73,1)&lt;=MOD(G4,B57),1,0)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+    </row>
+    <row r="49" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="7">
+        <f ca="1">SUM($B48:B48)</f>
+        <v>4</v>
+      </c>
+      <c r="C49" s="7">
+        <f ca="1">SUM($B48:C48)</f>
+        <v>8</v>
+      </c>
+      <c r="D49" s="8">
+        <f ca="1">SUM($B48:D48)</f>
+        <v>12</v>
+      </c>
+      <c r="E49" s="8">
+        <f ca="1">SUM($B48:E48)</f>
+        <v>15</v>
+      </c>
+      <c r="F49" s="40">
+        <f ca="1">SUM($B48:F48)</f>
+        <v>15</v>
+      </c>
+      <c r="G49" s="9">
+        <f ca="1">SUM($B48:G48)</f>
+        <v>15</v>
+      </c>
+      <c r="H49" s="9">
+        <f ca="1">SUM($B48:H48)</f>
+        <v>15</v>
+      </c>
+      <c r="I49" s="40">
+        <f ca="1">SUM($B48:I48)</f>
+        <v>15</v>
+      </c>
+      <c r="J49" s="8">
+        <f ca="1">SUM($B48:J48)</f>
+        <v>18</v>
+      </c>
+      <c r="K49" s="8">
+        <f ca="1">SUM($B48:K48)</f>
+        <v>21</v>
+      </c>
+      <c r="L49" s="8">
+        <f ca="1">SUM($B48:L48)</f>
+        <v>24</v>
+      </c>
+      <c r="M49" s="8">
+        <f ca="1">SUM($B48:M48)</f>
+        <v>27</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+    </row>
+    <row r="50" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="17">
+        <f ca="1">B49/G4</f>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C50" s="17">
+        <f ca="1">C49/G4</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="D50" s="18">
+        <f ca="1">D49/G4</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E50" s="18">
+        <f ca="1">E49/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F50" s="50">
+        <f ca="1">F49/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G50" s="19">
+        <f ca="1">G49/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H50" s="19">
+        <f ca="1">H49/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I50" s="50">
+        <f ca="1">I49/G4</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J50" s="18">
+        <f ca="1">J49/G4</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K50" s="18">
+        <f ca="1">K49/G4</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L50" s="18">
+        <f ca="1">L49/G4</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M50" s="18">
+        <f ca="1">M49/G4</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
+    </row>
+    <row r="51" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" s="22">
+        <v>6.1829787234042602E-2</v>
+      </c>
+      <c r="C51" s="22">
+        <v>0.11512027491408934</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0.19387755102040816</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0.19387755102040816</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0.35584415584415585</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.35584415584415585</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0.35584415584415585</v>
+      </c>
+      <c r="I51" s="51">
+        <v>0.35584415584415585</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0.53246753246753242</v>
+      </c>
+      <c r="K51" s="23">
+        <v>0.62041884816753923</v>
+      </c>
+      <c r="L51" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="M51" s="23">
+        <v>1</v>
+      </c>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="24"/>
+      <c r="AJ51" s="24"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="25"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="26"/>
+    </row>
+    <row r="52" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="C52" s="22">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D52" s="23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E52" s="23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F52" s="51">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G52" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H52" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I52" s="51">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J52" s="23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K52" s="23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L52" s="23">
+        <v>0</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0</v>
+      </c>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="25"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="26"/>
+      <c r="AQ52" s="26"/>
+    </row>
+    <row r="53" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="22">
+        <v>0</v>
+      </c>
+      <c r="C53" s="22">
+        <v>8.5910652920962206E-3</v>
+      </c>
+      <c r="D53" s="23">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="E53" s="23">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="F53" s="51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H53" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I53" s="51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J53" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K53" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L53" s="23">
+        <v>0</v>
+      </c>
+      <c r="M53" s="23">
+        <v>0</v>
+      </c>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="26"/>
+      <c r="AQ53" s="26"/>
+    </row>
+    <row r="54" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="22">
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0.78522336769759449</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0.65816326530612246</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0.65816326530612246</v>
+      </c>
+      <c r="F54" s="51">
+        <v>0.48831168831168831</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.48831168831168831</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0.48831168831168831</v>
+      </c>
+      <c r="I54" s="51">
+        <v>0.48831168831168831</v>
+      </c>
+      <c r="J54" s="23">
+        <f>34.6%</f>
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="K54" s="23">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="L54" s="23">
+        <v>0</v>
+      </c>
+      <c r="M54" s="23">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="25"/>
+      <c r="AO54" s="23"/>
+      <c r="AP54" s="26"/>
+      <c r="AQ54" s="26"/>
+    </row>
+    <row r="55" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0</v>
+      </c>
+      <c r="C55" s="22">
+        <v>2.4054982817869417E-2</v>
+      </c>
+      <c r="D55" s="23">
+        <v>3.3163265306122451E-2</v>
+      </c>
+      <c r="E55" s="23">
+        <v>3.3163265306122451E-2</v>
+      </c>
+      <c r="F55" s="51">
+        <v>7.792207792207792E-2</v>
+      </c>
+      <c r="G55" s="24">
+        <v>7.792207792207792E-2</v>
+      </c>
+      <c r="H55" s="24">
+        <v>7.792207792207792E-2</v>
+      </c>
+      <c r="I55" s="51">
+        <v>7.792207792207792E-2</v>
+      </c>
+      <c r="J55" s="23">
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="K55" s="23">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L55" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="M55" s="23">
+        <v>0</v>
+      </c>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="25"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="26"/>
+      <c r="AQ55" s="26"/>
+    </row>
+    <row r="56" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:43" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="28">
+        <f t="array" aca="1" ref="B57" ca="1">SUMPRODUCT((WEEKDAY(dates,2)&lt;6)*(ISNUMBER(dates))*(COUNTIF(datesJF,dates)=0))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" s="31" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="e">
+        <f t="array" ref="A58:H58" ca="1">_xlfn._xlws.FILTER(dates,(WEEKDAY(dates,2)&lt;6)* (ISERROR(MATCH(dates,datesJF,0))),1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B58" s="30" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H58" s="31" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+    </row>
+    <row r="60" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="34">
+        <v>46059</v>
+      </c>
+      <c r="C60" s="34">
+        <v>46062</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="34"/>
+      <c r="AG60" s="34"/>
+      <c r="AH60" s="34"/>
+      <c r="AI60" s="34"/>
+      <c r="AJ60" s="34"/>
+      <c r="AK60" s="34"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="34"/>
+      <c r="AN60" s="34"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+      <c r="AQ60" s="34"/>
+    </row>
+    <row r="61" spans="1:43" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="28">
+        <f ca="1">SUMPRODUCT((WEEKDAY(dates,2)&lt;6)*(ISNUMBER(dates))*(COUNTIF(datesJF,dates)=0))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35">
+        <f t="shared" ref="A62:A73" ca="1" si="0">IF(
+   AND(
+      WEEKDAY(INDEX(dates,ROW(AA1)),2)&lt;6,
+      ISERROR(MATCH(INDEX(dates,ROW(AA1)),datesJF,0))
+   ),
+   INDEX(dates,ROW(AA1)),
+   ""
+)</f>
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>46066</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F3DA5B-E6E6-4E51-80A4-8384658135B6}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -3485,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10734253-F119-435D-B462-DFDF5C3C92CB}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4780,13 +8260,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:P28">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4798,7 +8278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C405D786-CEB0-430A-896D-496213B63F35}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -5234,7 +8714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9612170-04AC-47DD-859E-01DCC6688529}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -6047,7 +9527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6077590-1C3D-4622-9544-BE9C54B9BFD9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6166,7 +9646,7 @@
       </c>
       <c r="O2" s="1">
         <f ca="1">IF(L2&lt;&gt;"",L2-K2,TODAY()-K2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>269</v>
@@ -6230,849 +9710,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DCE5A0-5595-46D9-ACFC-4E7B94D1B469}">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A2:AE44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "In Progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Passed")</f>
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Failed")</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f xml:space="preserve"> COUNTIF(Test_Cases!L:L, "Blocked")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="6">
-        <v>46055</v>
-      </c>
-      <c r="C29" s="6">
-        <v>46056</v>
-      </c>
-      <c r="D29" s="6">
-        <v>46057</v>
-      </c>
-      <c r="E29" s="6">
-        <v>46058</v>
-      </c>
-      <c r="F29" s="6">
-        <v>46059</v>
-      </c>
-      <c r="G29" s="6">
-        <v>46060</v>
-      </c>
-      <c r="H29" s="6">
-        <v>46061</v>
-      </c>
-      <c r="I29" s="6">
-        <v>46062</v>
-      </c>
-      <c r="J29" s="6">
-        <v>46063</v>
-      </c>
-      <c r="K29" s="6">
-        <v>46064</v>
-      </c>
-      <c r="L29" s="6">
-        <v>46065</v>
-      </c>
-      <c r="M29" s="6">
-        <v>46066</v>
-      </c>
-      <c r="N29" s="6">
-        <v>46067</v>
-      </c>
-      <c r="O29" s="6">
-        <v>46068</v>
-      </c>
-      <c r="P29" s="6">
-        <v>46069</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>46070</v>
-      </c>
-      <c r="R29" s="6">
-        <v>46071</v>
-      </c>
-      <c r="S29" s="6">
-        <v>46072</v>
-      </c>
-      <c r="T29" s="6">
-        <v>46073</v>
-      </c>
-      <c r="U29" s="6">
-        <v>46074</v>
-      </c>
-      <c r="V29" s="6">
-        <v>46075</v>
-      </c>
-      <c r="W29" s="6">
-        <v>46076</v>
-      </c>
-      <c r="X29" s="6">
-        <v>46077</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>46078</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>46079</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>46080</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>46081</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>46082</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>46083</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>46084</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="C30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K30" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-    </row>
-    <row r="31" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-    </row>
-    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-    </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-    </row>
-    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-    </row>
-    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-    </row>
-    <row r="36" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-    </row>
-    <row r="37" spans="1:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-    </row>
-    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-    </row>
-    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-    </row>
-    <row r="40" spans="1:31" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="19">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-    </row>
-    <row r="41" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-    </row>
-    <row r="42" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-    </row>
-    <row r="43" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" s="23">
-        <v>45852</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-    </row>
-    <row r="44" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>